--- a/team_specific_matrix/Cincinnati_B.xlsx
+++ b/team_specific_matrix/Cincinnati_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1979166666666667</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C2">
-        <v>0.5416666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01041666666666667</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.140625</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.109375</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009009009009009009</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="C3">
-        <v>0.04504504504504504</v>
+        <v>0.05072463768115942</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03603603603603604</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8198198198198198</v>
+        <v>0.7898550724637681</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.09009009009009009</v>
+        <v>0.1231884057971015</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07692307692307693</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6538461538461539</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2692307692307692</v>
+        <v>0.2941176470588235</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08176100628930817</v>
+        <v>0.08808290155440414</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0880503144654088</v>
+        <v>0.09844559585492228</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.169811320754717</v>
+        <v>0.1606217616580311</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02515723270440252</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1257861635220126</v>
+        <v>0.1398963730569948</v>
       </c>
       <c r="R6">
-        <v>0.07547169811320754</v>
+        <v>0.06735751295336788</v>
       </c>
       <c r="S6">
-        <v>0.4339622641509434</v>
+        <v>0.4196891191709844</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09558823529411764</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01470588235294118</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03676470588235294</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1102941176470588</v>
+        <v>0.09036144578313253</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.007352941176470588</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1544117647058824</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="R7">
-        <v>0.07352941176470588</v>
+        <v>0.06626506024096386</v>
       </c>
       <c r="S7">
-        <v>0.5073529411764706</v>
+        <v>0.4879518072289157</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1002570694087404</v>
+        <v>0.08997955010224949</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02056555269922879</v>
+        <v>0.02249488752556237</v>
       </c>
       <c r="E8">
-        <v>0.005141388174807198</v>
+        <v>0.00408997955010225</v>
       </c>
       <c r="F8">
-        <v>0.06169665809768637</v>
+        <v>0.06748466257668712</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1131105398457583</v>
+        <v>0.1022494887525562</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01542416452442159</v>
+        <v>0.01431492842535787</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1876606683804627</v>
+        <v>0.1860940695296524</v>
       </c>
       <c r="R8">
-        <v>0.07969151670951156</v>
+        <v>0.07566462167689161</v>
       </c>
       <c r="S8">
-        <v>0.416452442159383</v>
+        <v>0.4376278118609407</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08666666666666667</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02666666666666667</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06666666666666667</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1066666666666667</v>
+        <v>0.1005291005291005</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1466666666666667</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="R9">
-        <v>0.08</v>
+        <v>0.06878306878306878</v>
       </c>
       <c r="S9">
-        <v>0.4666666666666667</v>
+        <v>0.4656084656084656</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09152542372881356</v>
+        <v>0.09225092250922509</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0135593220338983</v>
+        <v>0.01383763837638376</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06779661016949153</v>
+        <v>0.06549815498154982</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1163841807909605</v>
+        <v>0.1060885608856089</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01129943502824859</v>
+        <v>0.01383763837638376</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2112994350282486</v>
+        <v>0.2177121771217712</v>
       </c>
       <c r="R10">
-        <v>0.07231638418079096</v>
+        <v>0.07564575645756458</v>
       </c>
       <c r="S10">
-        <v>0.415819209039548</v>
+        <v>0.4151291512915129</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1743119266055046</v>
+        <v>0.1654676258992806</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05504587155963303</v>
+        <v>0.06474820143884892</v>
       </c>
       <c r="K11">
-        <v>0.1972477064220184</v>
+        <v>0.2122302158273381</v>
       </c>
       <c r="L11">
-        <v>0.5321100917431193</v>
+        <v>0.5215827338129496</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.04128440366972477</v>
+        <v>0.03597122302158273</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6616541353383458</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1804511278195489</v>
+        <v>0.1790123456790123</v>
       </c>
       <c r="K12">
-        <v>0.03007518796992481</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="L12">
-        <v>0.05263157894736842</v>
+        <v>0.04320987654320987</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.07518796992481203</v>
+        <v>0.08641975308641975</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6129032258064516</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2258064516129032</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1612903225806452</v>
+        <v>0.1621621621621622</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02793296089385475</v>
+        <v>0.02242152466367713</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1899441340782123</v>
+        <v>0.1838565022421525</v>
       </c>
       <c r="I15">
-        <v>0.06145251396648044</v>
+        <v>0.05829596412556054</v>
       </c>
       <c r="J15">
-        <v>0.3575418994413408</v>
+        <v>0.3587443946188341</v>
       </c>
       <c r="K15">
-        <v>0.07262569832402235</v>
+        <v>0.07174887892376682</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0111731843575419</v>
+        <v>0.008968609865470852</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.106145251396648</v>
+        <v>0.09865470852017937</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1731843575418995</v>
+        <v>0.1973094170403587</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2868217054263566</v>
+        <v>0.286624203821656</v>
       </c>
       <c r="I16">
-        <v>0.08527131782945736</v>
+        <v>0.08917197452229299</v>
       </c>
       <c r="J16">
-        <v>0.3565891472868217</v>
+        <v>0.3503184713375796</v>
       </c>
       <c r="K16">
-        <v>0.08527131782945736</v>
+        <v>0.09554140127388536</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02325581395348837</v>
+        <v>0.01910828025477707</v>
       </c>
       <c r="N16">
-        <v>0.007751937984496124</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="O16">
-        <v>0.05426356589147287</v>
+        <v>0.05732484076433121</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1007751937984496</v>
+        <v>0.09554140127388536</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0125</v>
+        <v>0.009685230024213076</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.165625</v>
+        <v>0.1719128329297821</v>
       </c>
       <c r="I17">
-        <v>0.109375</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="J17">
-        <v>0.39375</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="K17">
-        <v>0.065625</v>
+        <v>0.07990314769975787</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.015625</v>
+        <v>0.01210653753026634</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.065625</v>
+        <v>0.05569007263922518</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.171875</v>
+        <v>0.162227602905569</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.015625</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1484375</v>
+        <v>0.1419354838709677</v>
       </c>
       <c r="I18">
-        <v>0.125</v>
+        <v>0.1096774193548387</v>
       </c>
       <c r="J18">
-        <v>0.390625</v>
+        <v>0.4</v>
       </c>
       <c r="K18">
-        <v>0.0625</v>
+        <v>0.07096774193548387</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0234375</v>
+        <v>0.01935483870967742</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0625</v>
+        <v>0.05161290322580645</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.171875</v>
+        <v>0.1935483870967742</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01666666666666667</v>
+        <v>0.01641791044776119</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2305555555555556</v>
+        <v>0.2335820895522388</v>
       </c>
       <c r="I19">
-        <v>0.06481481481481481</v>
+        <v>0.0664179104477612</v>
       </c>
       <c r="J19">
-        <v>0.3324074074074074</v>
+        <v>0.3365671641791045</v>
       </c>
       <c r="K19">
-        <v>0.1046296296296296</v>
+        <v>0.1</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01574074074074074</v>
+        <v>0.01716417910447761</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0712962962962963</v>
+        <v>0.07313432835820896</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1638888888888889</v>
+        <v>0.1567164179104478</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Cincinnati_B.xlsx
+++ b/team_specific_matrix/Cincinnati_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1923076923076923</v>
+        <v>0.19140625</v>
       </c>
       <c r="C2">
-        <v>0.5555555555555556</v>
+        <v>0.55859375</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008547008547008548</v>
+        <v>0.0078125</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.141025641025641</v>
+        <v>0.13671875</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1025641025641026</v>
+        <v>0.10546875</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007246376811594203</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="C3">
-        <v>0.05072463768115942</v>
+        <v>0.04605263157894737</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02898550724637681</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7898550724637681</v>
+        <v>0.7960526315789473</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1231884057971015</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05882352941176471</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6470588235294118</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2941176470588235</v>
+        <v>0.282051282051282</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08808290155440414</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09844559585492228</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1606217616580311</v>
+        <v>0.1682692307692308</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02590673575129534</v>
+        <v>0.02403846153846154</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1398963730569948</v>
+        <v>0.1490384615384615</v>
       </c>
       <c r="R6">
-        <v>0.06735751295336788</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="S6">
-        <v>0.4196891191709844</v>
+        <v>0.4086538461538461</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08433734939759036</v>
+        <v>0.08092485549132948</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02409638554216868</v>
+        <v>0.03468208092485549</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03012048192771084</v>
+        <v>0.02890173410404624</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09036144578313253</v>
+        <v>0.09248554913294797</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01204819277108434</v>
+        <v>0.0115606936416185</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2048192771084337</v>
+        <v>0.2023121387283237</v>
       </c>
       <c r="R7">
-        <v>0.06626506024096386</v>
+        <v>0.06358381502890173</v>
       </c>
       <c r="S7">
-        <v>0.4879518072289157</v>
+        <v>0.4855491329479769</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08997955010224949</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02249488752556237</v>
+        <v>0.02115384615384616</v>
       </c>
       <c r="E8">
-        <v>0.00408997955010225</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="F8">
-        <v>0.06748466257668712</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1022494887525562</v>
+        <v>0.1</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01431492842535787</v>
+        <v>0.01346153846153846</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1860940695296524</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="R8">
-        <v>0.07566462167689161</v>
+        <v>0.07884615384615384</v>
       </c>
       <c r="S8">
-        <v>0.4376278118609407</v>
+        <v>0.4384615384615385</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09523809523809523</v>
+        <v>0.09547738693467336</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02116402116402116</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06349206349206349</v>
+        <v>0.06532663316582915</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1005291005291005</v>
+        <v>0.09547738693467336</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02645502645502645</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1587301587301587</v>
+        <v>0.1658291457286432</v>
       </c>
       <c r="R9">
-        <v>0.06878306878306878</v>
+        <v>0.06532663316582915</v>
       </c>
       <c r="S9">
-        <v>0.4656084656084656</v>
+        <v>0.4673366834170855</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09225092250922509</v>
+        <v>0.09144792548687553</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01383763837638376</v>
+        <v>0.01439458086367485</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06549815498154982</v>
+        <v>0.06689246401354784</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1060885608856089</v>
+        <v>0.1083827265029636</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01383763837638376</v>
+        <v>0.01354784081287045</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2177121771217712</v>
+        <v>0.214225232853514</v>
       </c>
       <c r="R10">
-        <v>0.07564575645756458</v>
+        <v>0.07705334462320068</v>
       </c>
       <c r="S10">
-        <v>0.4151291512915129</v>
+        <v>0.4140558848433531</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1654676258992806</v>
+        <v>0.1593220338983051</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06474820143884892</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="K11">
-        <v>0.2122302158273381</v>
+        <v>0.2135593220338983</v>
       </c>
       <c r="L11">
-        <v>0.5215827338129496</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03597122302158273</v>
+        <v>0.03389830508474576</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6666666666666666</v>
+        <v>0.6686046511627907</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1790123456790123</v>
+        <v>0.1802325581395349</v>
       </c>
       <c r="K12">
-        <v>0.02469135802469136</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="L12">
-        <v>0.04320987654320987</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.08641975308641975</v>
+        <v>0.08139534883720931</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5945945945945946</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2432432432432433</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1621621621621622</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02242152466367713</v>
+        <v>0.02109704641350211</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1838565022421525</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="I15">
-        <v>0.05829596412556054</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="J15">
-        <v>0.3587443946188341</v>
+        <v>0.3628691983122363</v>
       </c>
       <c r="K15">
-        <v>0.07174887892376682</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008968609865470852</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09865470852017937</v>
+        <v>0.0970464135021097</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1973094170403587</v>
+        <v>0.1940928270042194</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.286624203821656</v>
+        <v>0.2832369942196532</v>
       </c>
       <c r="I16">
-        <v>0.08917197452229299</v>
+        <v>0.08670520231213873</v>
       </c>
       <c r="J16">
-        <v>0.3503184713375796</v>
+        <v>0.3410404624277457</v>
       </c>
       <c r="K16">
-        <v>0.09554140127388536</v>
+        <v>0.1040462427745665</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01910828025477707</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="N16">
-        <v>0.006369426751592357</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="O16">
-        <v>0.05732484076433121</v>
+        <v>0.05780346820809248</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09554140127388536</v>
+        <v>0.1040462427745665</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.009685230024213076</v>
+        <v>0.009111617312072893</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1719128329297821</v>
+        <v>0.1776765375854214</v>
       </c>
       <c r="I17">
-        <v>0.1186440677966102</v>
+        <v>0.1116173120728929</v>
       </c>
       <c r="J17">
-        <v>0.3898305084745763</v>
+        <v>0.3895216400911162</v>
       </c>
       <c r="K17">
-        <v>0.07990314769975787</v>
+        <v>0.0774487471526196</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01210653753026634</v>
+        <v>0.01138952164009112</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05569007263922518</v>
+        <v>0.05694760820045558</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.162227602905569</v>
+        <v>0.1662870159453303</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01290322580645161</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1419354838709677</v>
+        <v>0.1588235294117647</v>
       </c>
       <c r="I18">
-        <v>0.1096774193548387</v>
+        <v>0.1</v>
       </c>
       <c r="J18">
-        <v>0.4</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="K18">
-        <v>0.07096774193548387</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01935483870967742</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05161290322580645</v>
+        <v>0.05294117647058823</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1935483870967742</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01641791044776119</v>
+        <v>0.01602787456445993</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2335820895522388</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="I19">
-        <v>0.0664179104477612</v>
+        <v>0.06689895470383275</v>
       </c>
       <c r="J19">
-        <v>0.3365671641791045</v>
+        <v>0.3456445993031359</v>
       </c>
       <c r="K19">
-        <v>0.1</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01716417910447761</v>
+        <v>0.01672473867595819</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07313432835820896</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1567164179104478</v>
+        <v>0.1554006968641115</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Cincinnati_B.xlsx
+++ b/team_specific_matrix/Cincinnati_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.19140625</v>
+        <v>0.1853146853146853</v>
       </c>
       <c r="C2">
-        <v>0.55859375</v>
+        <v>0.5734265734265734</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0078125</v>
+        <v>0.01048951048951049</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.13671875</v>
+        <v>0.1328671328671329</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.10546875</v>
+        <v>0.0979020979020979</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006578947368421052</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="C3">
-        <v>0.04605263157894737</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02631578947368421</v>
+        <v>0.03932584269662921</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7960526315789473</v>
+        <v>0.7808988764044944</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.125</v>
+        <v>0.1067415730337079</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05128205128205128</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.282051282051282</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08653846153846154</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004807692307692308</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09134615384615384</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1682692307692308</v>
+        <v>0.1814345991561181</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02403846153846154</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1490384615384615</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="R6">
-        <v>0.0673076923076923</v>
+        <v>0.06751054852320675</v>
       </c>
       <c r="S6">
-        <v>0.4086538461538461</v>
+        <v>0.3755274261603376</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08092485549132948</v>
+        <v>0.08839779005524862</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03468208092485549</v>
+        <v>0.03314917127071823</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02890173410404624</v>
+        <v>0.03314917127071823</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09248554913294797</v>
+        <v>0.09944751381215469</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0115606936416185</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2023121387283237</v>
+        <v>0.1933701657458564</v>
       </c>
       <c r="R7">
-        <v>0.06358381502890173</v>
+        <v>0.0718232044198895</v>
       </c>
       <c r="S7">
-        <v>0.4855491329479769</v>
+        <v>0.4696132596685083</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.1047957371225577</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02115384615384616</v>
+        <v>0.02131438721136767</v>
       </c>
       <c r="E8">
-        <v>0.003846153846153846</v>
+        <v>0.003552397868561279</v>
       </c>
       <c r="F8">
-        <v>0.0673076923076923</v>
+        <v>0.07282415630550622</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.1119005328596803</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01346153846153846</v>
+        <v>0.01243339253996448</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1769230769230769</v>
+        <v>0.1705150976909414</v>
       </c>
       <c r="R8">
-        <v>0.07884615384615384</v>
+        <v>0.07460035523978685</v>
       </c>
       <c r="S8">
-        <v>0.4384615384615385</v>
+        <v>0.4280639431616341</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09547738693467336</v>
+        <v>0.09389671361502347</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02010050251256281</v>
+        <v>0.02347417840375587</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06532663316582915</v>
+        <v>0.06572769953051644</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09547738693467336</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02512562814070352</v>
+        <v>0.02347417840375587</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1658291457286432</v>
+        <v>0.1596244131455399</v>
       </c>
       <c r="R9">
-        <v>0.06532663316582915</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="S9">
-        <v>0.4673366834170855</v>
+        <v>0.4507042253521127</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09144792548687553</v>
+        <v>0.09154383242823895</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01439458086367485</v>
+        <v>0.01318851823118697</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06689246401354784</v>
+        <v>0.06904577191621412</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1083827265029636</v>
+        <v>0.1256788207913111</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01354784081287045</v>
+        <v>0.01939487975174554</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.214225232853514</v>
+        <v>0.2063615205585725</v>
       </c>
       <c r="R10">
-        <v>0.07705334462320068</v>
+        <v>0.07680372381691233</v>
       </c>
       <c r="S10">
-        <v>0.4140558848433531</v>
+        <v>0.3979829325058185</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1593220338983051</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06779661016949153</v>
+        <v>0.07236842105263158</v>
       </c>
       <c r="K11">
-        <v>0.2135593220338983</v>
+        <v>0.2138157894736842</v>
       </c>
       <c r="L11">
-        <v>0.5254237288135594</v>
+        <v>0.5230263157894737</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03389830508474576</v>
+        <v>0.03289473684210526</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6686046511627907</v>
+        <v>0.6761363636363636</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1802325581395349</v>
+        <v>0.1761363636363636</v>
       </c>
       <c r="K12">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="L12">
-        <v>0.04651162790697674</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.08139534883720931</v>
+        <v>0.07954545454545454</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5789473684210527</v>
+        <v>0.6</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2631578947368421</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1578947368421053</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02109704641350211</v>
+        <v>0.0193050193050193</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1772151898734177</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="I15">
-        <v>0.06329113924050633</v>
+        <v>0.07335907335907337</v>
       </c>
       <c r="J15">
-        <v>0.3628691983122363</v>
+        <v>0.3590733590733591</v>
       </c>
       <c r="K15">
-        <v>0.0759493670886076</v>
+        <v>0.0694980694980695</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008438818565400843</v>
+        <v>0.007722007722007722</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0970464135021097</v>
+        <v>0.09266409266409266</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1940928270042194</v>
+        <v>0.1891891891891892</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2832369942196532</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="I16">
-        <v>0.08670520231213873</v>
+        <v>0.08205128205128205</v>
       </c>
       <c r="J16">
-        <v>0.3410404624277457</v>
+        <v>0.3641025641025641</v>
       </c>
       <c r="K16">
-        <v>0.1040462427745665</v>
+        <v>0.09743589743589744</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01734104046242774</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="N16">
-        <v>0.005780346820809248</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="O16">
-        <v>0.05780346820809248</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1040462427745665</v>
+        <v>0.1128205128205128</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.009111617312072893</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1776765375854214</v>
+        <v>0.1861471861471861</v>
       </c>
       <c r="I17">
-        <v>0.1116173120728929</v>
+        <v>0.1103896103896104</v>
       </c>
       <c r="J17">
-        <v>0.3895216400911162</v>
+        <v>0.3852813852813853</v>
       </c>
       <c r="K17">
-        <v>0.0774487471526196</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01138952164009112</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05694760820045558</v>
+        <v>0.05627705627705628</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1662870159453303</v>
+        <v>0.158008658008658</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01176470588235294</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1588235294117647</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="I18">
-        <v>0.1</v>
+        <v>0.0918918918918919</v>
       </c>
       <c r="J18">
-        <v>0.4117647058823529</v>
+        <v>0.4216216216216216</v>
       </c>
       <c r="K18">
-        <v>0.07058823529411765</v>
+        <v>0.07027027027027027</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01764705882352941</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05294117647058823</v>
+        <v>0.05945945945945946</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1764705882352941</v>
+        <v>0.1675675675675676</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01602787456445993</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2285714285714286</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="I19">
-        <v>0.06689895470383275</v>
+        <v>0.06822742474916388</v>
       </c>
       <c r="J19">
-        <v>0.3456445993031359</v>
+        <v>0.345819397993311</v>
       </c>
       <c r="K19">
-        <v>0.0975609756097561</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01672473867595819</v>
+        <v>0.01672240802675585</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07317073170731707</v>
+        <v>0.07290969899665552</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1554006968641115</v>
+        <v>0.1525083612040134</v>
       </c>
     </row>
   </sheetData>
